--- a/output_SR.xlsx
+++ b/output_SR.xlsx
@@ -483,7 +483,7 @@
         <v>239</v>
       </c>
       <c r="D2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E2">
         <v>885</v>
@@ -492,34 +492,34 @@
         <v>1819</v>
       </c>
       <c r="G2">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="H2">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="I2">
         <v>3832</v>
       </c>
       <c r="J2">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="K2">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="L2">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="M2">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="N2">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="O2">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -533,40 +533,40 @@
         <v>227</v>
       </c>
       <c r="D3">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E3">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F3">
         <v>2064</v>
       </c>
       <c r="G3">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="H3">
-        <v>4060</v>
+        <v>4065</v>
       </c>
       <c r="I3">
-        <v>4130</v>
+        <v>4125</v>
       </c>
       <c r="J3">
-        <v>4863</v>
+        <v>4866</v>
       </c>
       <c r="K3">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="L3">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="M3">
         <v>2522</v>
       </c>
       <c r="N3">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="O3">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="P3">
         <v>32</v>
@@ -586,40 +586,40 @@
         <v>604</v>
       </c>
       <c r="E4">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F4">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="G4">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="H4">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="I4">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="J4">
-        <v>4854</v>
+        <v>4860</v>
       </c>
       <c r="K4">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="L4">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="M4">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="N4">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="O4">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="P4">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -630,46 +630,46 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15292</v>
+        <v>15297</v>
       </c>
       <c r="D5">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="E5">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F5">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="G5">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H5">
         <v>1986</v>
       </c>
       <c r="I5">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="J5">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="K5">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="L5">
         <v>1593</v>
       </c>
       <c r="M5">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N5">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="O5">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P5">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -680,22 +680,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>18206</v>
+        <v>18229</v>
       </c>
       <c r="D6">
-        <v>15987</v>
+        <v>15964</v>
       </c>
       <c r="E6">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F6">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G6">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H6">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I6">
         <v>980</v>
@@ -704,22 +704,22 @@
         <v>1168</v>
       </c>
       <c r="K6">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L6">
         <v>816</v>
       </c>
       <c r="M6">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N6">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O6">
         <v>734</v>
       </c>
       <c r="P6">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,43 +730,43 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12386</v>
+        <v>12398</v>
       </c>
       <c r="D7">
-        <v>10482</v>
+        <v>10474</v>
       </c>
       <c r="E7">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F7">
         <v>2050</v>
       </c>
       <c r="G7">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H7">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="I7">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="J7">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="K7">
         <v>3951</v>
       </c>
       <c r="L7">
-        <v>2763</v>
+        <v>2757</v>
       </c>
       <c r="M7">
         <v>1837</v>
       </c>
       <c r="N7">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="O7">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="P7">
         <v>79</v>
@@ -783,40 +783,40 @@
         <v>4591</v>
       </c>
       <c r="D8">
-        <v>3708</v>
+        <v>3710</v>
       </c>
       <c r="E8">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="F8">
         <v>2133</v>
       </c>
       <c r="G8">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="H8">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="I8">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="J8">
-        <v>4282</v>
+        <v>4286</v>
       </c>
       <c r="K8">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="L8">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="M8">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="N8">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O8">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P8">
         <v>49</v>
@@ -830,46 +830,46 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3814</v>
+        <v>3821</v>
       </c>
       <c r="D9">
-        <v>2948</v>
+        <v>2941</v>
       </c>
       <c r="E9">
+        <v>1244</v>
+      </c>
+      <c r="F9">
         <v>1243</v>
       </c>
-      <c r="F9">
-        <v>1244</v>
-      </c>
       <c r="G9">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H9">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="I9">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="J9">
-        <v>5334</v>
+        <v>5338</v>
       </c>
       <c r="K9">
-        <v>5238</v>
+        <v>5233</v>
       </c>
       <c r="L9">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="M9">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="N9">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="O9">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="P9">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -886,40 +886,40 @@
         <v>722</v>
       </c>
       <c r="E10">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F10">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="G10">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="H10">
-        <v>5595</v>
+        <v>5596</v>
       </c>
       <c r="I10">
-        <v>6303</v>
+        <v>6307</v>
       </c>
       <c r="J10">
-        <v>7590</v>
+        <v>7589</v>
       </c>
       <c r="K10">
-        <v>7100</v>
+        <v>7096</v>
       </c>
       <c r="L10">
-        <v>5623</v>
+        <v>5627</v>
       </c>
       <c r="M10">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="N10">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="O10">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="P10">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -930,40 +930,40 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D11">
-        <v>4177</v>
+        <v>4188</v>
       </c>
       <c r="E11">
-        <v>14627</v>
+        <v>14636</v>
       </c>
       <c r="F11">
-        <v>19660</v>
+        <v>19659</v>
       </c>
       <c r="G11">
-        <v>16339</v>
+        <v>16318</v>
       </c>
       <c r="H11">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I11">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="J11">
         <v>1984</v>
       </c>
       <c r="K11">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="L11">
         <v>1306</v>
       </c>
       <c r="M11">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N11">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O11">
         <v>480</v>
@@ -980,37 +980,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>7226</v>
+        <v>7229</v>
       </c>
       <c r="D12">
-        <v>12861</v>
+        <v>12895</v>
       </c>
       <c r="E12">
-        <v>34290</v>
+        <v>34277</v>
       </c>
       <c r="F12">
-        <v>20206</v>
+        <v>20201</v>
       </c>
       <c r="G12">
-        <v>13522</v>
+        <v>13511</v>
       </c>
       <c r="H12">
-        <v>5284</v>
+        <v>5280</v>
       </c>
       <c r="I12">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="J12">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="K12">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="L12">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M12">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="N12">
         <v>1168</v>
@@ -1030,46 +1030,46 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>14644</v>
+        <v>14662</v>
       </c>
       <c r="D13">
-        <v>19549</v>
+        <v>19570</v>
       </c>
       <c r="E13">
-        <v>27029</v>
+        <v>27004</v>
       </c>
       <c r="F13">
-        <v>13817</v>
+        <v>13822</v>
       </c>
       <c r="G13">
         <v>10685</v>
       </c>
       <c r="H13">
-        <v>11048</v>
+        <v>11029</v>
       </c>
       <c r="I13">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="J13">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="K13">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="L13">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="M13">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N13">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="O13">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="P13">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1080,46 +1080,46 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>4431</v>
+        <v>4434</v>
       </c>
       <c r="D14">
-        <v>6219</v>
+        <v>6235</v>
       </c>
       <c r="E14">
-        <v>25350</v>
+        <v>25366</v>
       </c>
       <c r="F14">
-        <v>22292</v>
+        <v>22284</v>
       </c>
       <c r="G14">
-        <v>11740</v>
+        <v>11732</v>
       </c>
       <c r="H14">
-        <v>13193</v>
+        <v>13185</v>
       </c>
       <c r="I14">
-        <v>4250</v>
+        <v>4241</v>
       </c>
       <c r="J14">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="K14">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="L14">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="M14">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="N14">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="O14">
         <v>912</v>
       </c>
       <c r="P14">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,31 +1130,31 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="D15">
-        <v>3632</v>
+        <v>3637</v>
       </c>
       <c r="E15">
-        <v>13663</v>
+        <v>13682</v>
       </c>
       <c r="F15">
-        <v>23118</v>
+        <v>23106</v>
       </c>
       <c r="G15">
-        <v>11188</v>
+        <v>11193</v>
       </c>
       <c r="H15">
-        <v>20389</v>
+        <v>20398</v>
       </c>
       <c r="I15">
-        <v>17823</v>
+        <v>17804</v>
       </c>
       <c r="J15">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="K15">
-        <v>3053</v>
+        <v>3047</v>
       </c>
       <c r="L15">
         <v>2588</v>
@@ -1163,13 +1163,13 @@
         <v>2007</v>
       </c>
       <c r="N15">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="O15">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="P15">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1180,46 +1180,46 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="D16">
         <v>2758</v>
       </c>
       <c r="E16">
-        <v>7664</v>
+        <v>7672</v>
       </c>
       <c r="F16">
-        <v>11615</v>
+        <v>11630</v>
       </c>
       <c r="G16">
-        <v>12219</v>
+        <v>12201</v>
       </c>
       <c r="H16">
-        <v>8477</v>
+        <v>8483</v>
       </c>
       <c r="I16">
-        <v>15257</v>
+        <v>15274</v>
       </c>
       <c r="J16">
-        <v>22080</v>
+        <v>22063</v>
       </c>
       <c r="K16">
-        <v>7487</v>
+        <v>7475</v>
       </c>
       <c r="L16">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="M16">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N16">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O16">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P16">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,40 +1230,40 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="D17">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="E17">
-        <v>5330</v>
+        <v>5339</v>
       </c>
       <c r="F17">
-        <v>10174</v>
+        <v>10182</v>
       </c>
       <c r="G17">
-        <v>8383</v>
+        <v>8375</v>
       </c>
       <c r="H17">
-        <v>6108</v>
+        <v>6105</v>
       </c>
       <c r="I17">
-        <v>7884</v>
+        <v>7888</v>
       </c>
       <c r="J17">
-        <v>12650</v>
+        <v>12648</v>
       </c>
       <c r="K17">
-        <v>6974</v>
+        <v>6969</v>
       </c>
       <c r="L17">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="M17">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="N17">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="O17">
         <v>1005</v>
@@ -1280,46 +1280,46 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="D18">
-        <v>3145</v>
+        <v>3150</v>
       </c>
       <c r="E18">
-        <v>6642</v>
+        <v>6652</v>
       </c>
       <c r="F18">
-        <v>16490</v>
+        <v>16495</v>
       </c>
       <c r="G18">
-        <v>13102</v>
+        <v>13088</v>
       </c>
       <c r="H18">
-        <v>4980</v>
+        <v>4975</v>
       </c>
       <c r="I18">
-        <v>5544</v>
+        <v>5545</v>
       </c>
       <c r="J18">
-        <v>9676</v>
+        <v>9693</v>
       </c>
       <c r="K18">
-        <v>10405</v>
+        <v>10390</v>
       </c>
       <c r="L18">
-        <v>5754</v>
+        <v>5750</v>
       </c>
       <c r="M18">
-        <v>4466</v>
+        <v>4469</v>
       </c>
       <c r="N18">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="O18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="P18">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1330,46 +1330,46 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="D19">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E19">
-        <v>6749</v>
+        <v>6762</v>
       </c>
       <c r="F19">
-        <v>17153</v>
+        <v>17162</v>
       </c>
       <c r="G19">
-        <v>17982</v>
+        <v>17980</v>
       </c>
       <c r="H19">
-        <v>12828</v>
+        <v>12814</v>
       </c>
       <c r="I19">
-        <v>11304</v>
+        <v>11301</v>
       </c>
       <c r="J19">
-        <v>10147</v>
+        <v>10152</v>
       </c>
       <c r="K19">
-        <v>13118</v>
+        <v>13116</v>
       </c>
       <c r="L19">
-        <v>8851</v>
+        <v>8848</v>
       </c>
       <c r="M19">
         <v>6711</v>
       </c>
       <c r="N19">
-        <v>4589</v>
+        <v>4585</v>
       </c>
       <c r="O19">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="P19">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1380,19 +1380,19 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2453</v>
+        <v>2458</v>
       </c>
       <c r="D20">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E20">
-        <v>4802</v>
+        <v>4810</v>
       </c>
       <c r="F20">
-        <v>13737</v>
+        <v>13755</v>
       </c>
       <c r="G20">
-        <v>23727</v>
+        <v>23726</v>
       </c>
       <c r="H20">
         <v>21092</v>
@@ -1401,25 +1401,25 @@
         <v>20202</v>
       </c>
       <c r="J20">
-        <v>22435</v>
+        <v>22432</v>
       </c>
       <c r="K20">
-        <v>15601</v>
+        <v>15594</v>
       </c>
       <c r="L20">
-        <v>11126</v>
+        <v>11117</v>
       </c>
       <c r="M20">
-        <v>6411</v>
+        <v>6415</v>
       </c>
       <c r="N20">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="O20">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="P20">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1430,46 +1430,46 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="D21">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="E21">
         <v>4508</v>
       </c>
       <c r="F21">
-        <v>7105</v>
+        <v>7112</v>
       </c>
       <c r="G21">
-        <v>11432</v>
+        <v>11431</v>
       </c>
       <c r="H21">
-        <v>12230</v>
+        <v>12233</v>
       </c>
       <c r="I21">
-        <v>11377</v>
+        <v>11385</v>
       </c>
       <c r="J21">
-        <v>17079</v>
+        <v>17082</v>
       </c>
       <c r="K21">
-        <v>31321</v>
+        <v>31326</v>
       </c>
       <c r="L21">
-        <v>30273</v>
+        <v>30260</v>
       </c>
       <c r="M21">
-        <v>14342</v>
+        <v>14336</v>
       </c>
       <c r="N21">
-        <v>8235</v>
+        <v>8228</v>
       </c>
       <c r="O21">
-        <v>8157</v>
+        <v>8160</v>
       </c>
       <c r="P21">
-        <v>3366</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1480,46 +1480,46 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D22">
         <v>1637</v>
       </c>
       <c r="E22">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="F22">
-        <v>5127</v>
+        <v>5135</v>
       </c>
       <c r="G22">
-        <v>7084</v>
+        <v>7080</v>
       </c>
       <c r="H22">
-        <v>9659</v>
+        <v>9662</v>
       </c>
       <c r="I22">
-        <v>10551</v>
+        <v>10558</v>
       </c>
       <c r="J22">
-        <v>14314</v>
+        <v>14311</v>
       </c>
       <c r="K22">
-        <v>19391</v>
+        <v>19408</v>
       </c>
       <c r="L22">
-        <v>23179</v>
+        <v>23188</v>
       </c>
       <c r="M22">
-        <v>27221</v>
+        <v>27202</v>
       </c>
       <c r="N22">
-        <v>13907</v>
+        <v>13903</v>
       </c>
       <c r="O22">
-        <v>9320</v>
+        <v>9311</v>
       </c>
       <c r="P22">
-        <v>3100</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1530,46 +1530,46 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D23">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E23">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="F23">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="G23">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="H23">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="I23">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="J23">
-        <v>7430</v>
+        <v>7437</v>
       </c>
       <c r="K23">
-        <v>11001</v>
+        <v>10996</v>
       </c>
       <c r="L23">
-        <v>13588</v>
+        <v>13597</v>
       </c>
       <c r="M23">
-        <v>15103</v>
+        <v>15112</v>
       </c>
       <c r="N23">
-        <v>15833</v>
+        <v>15824</v>
       </c>
       <c r="O23">
-        <v>12447</v>
+        <v>12440</v>
       </c>
       <c r="P23">
-        <v>4194</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1580,46 +1580,46 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D24">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E24">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="F24">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="G24">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="H24">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="I24">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="J24">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="K24">
-        <v>5340</v>
+        <v>5346</v>
       </c>
       <c r="L24">
-        <v>6364</v>
+        <v>6361</v>
       </c>
       <c r="M24">
-        <v>8297</v>
+        <v>8301</v>
       </c>
       <c r="N24">
-        <v>11354</v>
+        <v>11359</v>
       </c>
       <c r="O24">
-        <v>8151</v>
+        <v>8141</v>
       </c>
       <c r="P24">
-        <v>2839</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1630,46 +1630,46 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D25">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E25">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F25">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="G25">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="H25">
         <v>3725</v>
       </c>
       <c r="I25">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="J25">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="K25">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="L25">
         <v>5974</v>
       </c>
       <c r="M25">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="N25">
-        <v>4963</v>
+        <v>4975</v>
       </c>
       <c r="O25">
-        <v>9216</v>
+        <v>9204</v>
       </c>
       <c r="P25">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1680,22 +1680,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D26">
         <v>851</v>
       </c>
       <c r="E26">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="F26">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="G26">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H26">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="I26">
         <v>2791</v>
@@ -1704,22 +1704,22 @@
         <v>3446</v>
       </c>
       <c r="K26">
-        <v>3858</v>
+        <v>3862</v>
       </c>
       <c r="L26">
-        <v>4364</v>
+        <v>4360</v>
       </c>
       <c r="M26">
-        <v>5643</v>
+        <v>5648</v>
       </c>
       <c r="N26">
-        <v>6448</v>
+        <v>6445</v>
       </c>
       <c r="O26">
-        <v>5517</v>
+        <v>5519</v>
       </c>
       <c r="P26">
-        <v>2891</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1733,31 +1733,31 @@
         <v>919</v>
       </c>
       <c r="D27">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E27">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="F27">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="G27">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="H27">
-        <v>4339</v>
+        <v>4336</v>
       </c>
       <c r="I27">
-        <v>4589</v>
+        <v>4595</v>
       </c>
       <c r="J27">
-        <v>6262</v>
+        <v>6256</v>
       </c>
       <c r="K27">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="L27">
-        <v>6602</v>
+        <v>6609</v>
       </c>
       <c r="M27">
         <v>6898</v>
@@ -1766,10 +1766,10 @@
         <v>6951</v>
       </c>
       <c r="O27">
-        <v>9258</v>
+        <v>9259</v>
       </c>
       <c r="P27">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1786,40 +1786,40 @@
         <v>659</v>
       </c>
       <c r="E28">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F28">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G28">
-        <v>2892</v>
+        <v>2897</v>
       </c>
       <c r="H28">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="I28">
         <v>5016</v>
       </c>
       <c r="J28">
-        <v>6631</v>
+        <v>6635</v>
       </c>
       <c r="K28">
-        <v>6988</v>
+        <v>6990</v>
       </c>
       <c r="L28">
-        <v>6861</v>
+        <v>6859</v>
       </c>
       <c r="M28">
-        <v>7084</v>
+        <v>7085</v>
       </c>
       <c r="N28">
-        <v>7482</v>
+        <v>7485</v>
       </c>
       <c r="O28">
-        <v>8614</v>
+        <v>8607</v>
       </c>
       <c r="P28">
-        <v>3387</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1836,40 +1836,40 @@
         <v>655</v>
       </c>
       <c r="E29">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F29">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="G29">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="H29">
         <v>3613</v>
       </c>
       <c r="I29">
-        <v>4040</v>
+        <v>4045</v>
       </c>
       <c r="J29">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="K29">
-        <v>5825</v>
+        <v>5835</v>
       </c>
       <c r="L29">
-        <v>6146</v>
+        <v>6140</v>
       </c>
       <c r="M29">
         <v>5999</v>
       </c>
       <c r="N29">
-        <v>5576</v>
+        <v>5573</v>
       </c>
       <c r="O29">
-        <v>6488</v>
+        <v>6494</v>
       </c>
       <c r="P29">
-        <v>2378</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1880,7 +1880,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D30">
         <v>619</v>
@@ -1889,37 +1889,37 @@
         <v>1046</v>
       </c>
       <c r="F30">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="G30">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="H30">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="I30">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="J30">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="K30">
         <v>3165</v>
       </c>
       <c r="L30">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="M30">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="N30">
         <v>3451</v>
       </c>
       <c r="O30">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="P30">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1930,28 +1930,28 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D31">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E31">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F31">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="G31">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="H31">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I31">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="J31">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="K31">
         <v>2957</v>
@@ -1966,10 +1966,10 @@
         <v>2729</v>
       </c>
       <c r="O31">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="P31">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1980,46 +1980,46 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D32">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E32">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F32">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G32">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="H32">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="I32">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="J32">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="K32">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="L32">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="M32">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="N32">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="O32">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="P32">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2030,19 +2030,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D33">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E33">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F33">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="G33">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="H33">
         <v>2139</v>
@@ -2054,10 +2054,10 @@
         <v>2533</v>
       </c>
       <c r="K33">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="L33">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="M33">
         <v>2758</v>
@@ -2066,10 +2066,10 @@
         <v>2475</v>
       </c>
       <c r="O33">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="P33">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2080,46 +2080,46 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D34">
         <v>558</v>
       </c>
       <c r="E34">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F34">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="G34">
         <v>1543</v>
       </c>
       <c r="H34">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="I34">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="J34">
         <v>2646</v>
       </c>
       <c r="K34">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="L34">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M34">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="N34">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="O34">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="P34">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2130,46 +2130,46 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D35">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E35">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F35">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G35">
         <v>1307</v>
       </c>
       <c r="H35">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="I35">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="J35">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="K35">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="L35">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="M35">
         <v>2169</v>
       </c>
       <c r="N35">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="O35">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="P35">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2186,28 +2186,28 @@
         <v>298</v>
       </c>
       <c r="E36">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F36">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G36">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H36">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I36">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J36">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="K36">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="L36">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="M36">
         <v>1634</v>
@@ -2216,7 +2216,7 @@
         <v>1586</v>
       </c>
       <c r="O36">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="P36">
         <v>779</v>
@@ -2230,46 +2230,46 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D37">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F37">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G37">
         <v>692</v>
       </c>
       <c r="H37">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I37">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J37">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="K37">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L37">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="M37">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="N37">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="O37">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="P37">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2280,46 +2280,46 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D38">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F38">
         <v>612</v>
       </c>
       <c r="G38">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H38">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I38">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="J38">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K38">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="L38">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="M38">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="N38">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="O38">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="P38">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2330,16 +2330,16 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D39">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F39">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G39">
         <v>1018</v>
@@ -2348,28 +2348,28 @@
         <v>1201</v>
       </c>
       <c r="I39">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="J39">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="K39">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="L39">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="M39">
         <v>2009</v>
       </c>
       <c r="N39">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O39">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="P39">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2383,28 +2383,28 @@
         <v>413</v>
       </c>
       <c r="D40">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E40">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F40">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G40">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H40">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="I40">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="J40">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="K40">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L40">
         <v>1548</v>
@@ -2413,10 +2413,10 @@
         <v>1637</v>
       </c>
       <c r="N40">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="O40">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="P40">
         <v>737</v>
@@ -2430,46 +2430,46 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D41">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41">
         <v>482</v>
       </c>
       <c r="F41">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G41">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H41">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I41">
         <v>956</v>
       </c>
       <c r="J41">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="K41">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L41">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="M41">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="N41">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="O41">
         <v>1278</v>
       </c>
       <c r="P41">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2486,10 +2486,10 @@
         <v>195</v>
       </c>
       <c r="E42">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F42">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G42">
         <v>600</v>
@@ -2498,28 +2498,28 @@
         <v>760</v>
       </c>
       <c r="I42">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J42">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="K42">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="L42">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M42">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N42">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O42">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="P42">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2533,13 +2533,13 @@
         <v>231</v>
       </c>
       <c r="D43">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E43">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F43">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G43">
         <v>561</v>
@@ -2548,7 +2548,7 @@
         <v>647</v>
       </c>
       <c r="I43">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J43">
         <v>1036</v>
@@ -2557,19 +2557,19 @@
         <v>1024</v>
       </c>
       <c r="L43">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M43">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="N43">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="O43">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P43">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2586,7 +2586,7 @@
         <v>192</v>
       </c>
       <c r="E44">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F44">
         <v>483</v>
@@ -2595,7 +2595,7 @@
         <v>576</v>
       </c>
       <c r="H44">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I44">
         <v>786</v>
@@ -2604,19 +2604,19 @@
         <v>1057</v>
       </c>
       <c r="K44">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="L44">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M44">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="N44">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O44">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="P44">
         <v>489</v>
@@ -2639,37 +2639,37 @@
         <v>372</v>
       </c>
       <c r="F45">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G45">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H45">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I45">
         <v>1067</v>
       </c>
       <c r="J45">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="K45">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="L45">
         <v>1549</v>
       </c>
       <c r="M45">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="N45">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="O45">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="P45">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2683,43 +2683,43 @@
         <v>561</v>
       </c>
       <c r="D46">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E46">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F46">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G46">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H46">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="I46">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="J46">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="K46">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="L46">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="M46">
         <v>3534</v>
       </c>
       <c r="N46">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="O46">
         <v>2567</v>
       </c>
       <c r="P46">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2736,34 +2736,34 @@
         <v>610</v>
       </c>
       <c r="E47">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="F47">
         <v>1653</v>
       </c>
       <c r="G47">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="H47">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="I47">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="J47">
-        <v>5068</v>
+        <v>5075</v>
       </c>
       <c r="K47">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="L47">
-        <v>5379</v>
+        <v>5375</v>
       </c>
       <c r="M47">
-        <v>5460</v>
+        <v>5469</v>
       </c>
       <c r="N47">
-        <v>5082</v>
+        <v>5074</v>
       </c>
       <c r="O47">
         <v>4407</v>
@@ -2780,46 +2780,46 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D48">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E48">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F48">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G48">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="H48">
-        <v>3687</v>
+        <v>3692</v>
       </c>
       <c r="I48">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="J48">
-        <v>5067</v>
+        <v>5070</v>
       </c>
       <c r="K48">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="L48">
         <v>5441</v>
       </c>
       <c r="M48">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="N48">
-        <v>5262</v>
+        <v>5263</v>
       </c>
       <c r="O48">
-        <v>4819</v>
+        <v>4816</v>
       </c>
       <c r="P48">
-        <v>1820</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2830,43 +2830,43 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D49">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E49">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F49">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="G49">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H49">
         <v>2060</v>
       </c>
       <c r="I49">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="J49">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="K49">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="L49">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="M49">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="N49">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="O49">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="P49">
         <v>895</v>
@@ -2880,28 +2880,28 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D50">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E50">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F50">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="G50">
         <v>2078</v>
       </c>
       <c r="H50">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I50">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="J50">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="K50">
         <v>1648</v>
@@ -2910,13 +2910,13 @@
         <v>1815</v>
       </c>
       <c r="M50">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="N50">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="O50">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="P50">
         <v>667</v>
@@ -2930,46 +2930,46 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D51">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E51">
         <v>1814</v>
       </c>
       <c r="F51">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="G51">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="H51">
         <v>954</v>
       </c>
       <c r="I51">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J51">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K51">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="L51">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M51">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="N51">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="O51">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="P51">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2980,22 +2980,22 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D52">
         <v>401</v>
       </c>
       <c r="E52">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F52">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G52">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H52">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I52">
         <v>494</v>
@@ -3010,13 +3010,13 @@
         <v>669</v>
       </c>
       <c r="M52">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N52">
         <v>644</v>
       </c>
       <c r="O52">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P52">
         <v>306</v>
@@ -3033,19 +3033,19 @@
         <v>459</v>
       </c>
       <c r="D53">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E53">
         <v>620</v>
       </c>
       <c r="F53">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G53">
         <v>981</v>
       </c>
       <c r="H53">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I53">
         <v>433</v>
@@ -3057,19 +3057,19 @@
         <v>513</v>
       </c>
       <c r="L53">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M53">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N53">
         <v>538</v>
       </c>
       <c r="O53">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P53">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3086,19 +3086,19 @@
         <v>298</v>
       </c>
       <c r="E54">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F54">
         <v>738</v>
       </c>
       <c r="G54">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H54">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I54">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J54">
         <v>682</v>
@@ -3107,16 +3107,16 @@
         <v>825</v>
       </c>
       <c r="L54">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M54">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N54">
         <v>1081</v>
       </c>
       <c r="O54">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P54">
         <v>487</v>
@@ -3142,10 +3142,10 @@
         <v>754</v>
       </c>
       <c r="G55">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H55">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I55">
         <v>598</v>
@@ -3157,19 +3157,19 @@
         <v>781</v>
       </c>
       <c r="L55">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M55">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="N55">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O55">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="P55">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3183,43 +3183,43 @@
         <v>357</v>
       </c>
       <c r="D56">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E56">
         <v>345</v>
       </c>
       <c r="F56">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G56">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H56">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I56">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J56">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K56">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L56">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M56">
         <v>884</v>
       </c>
       <c r="N56">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="O56">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P56">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3233,10 +3233,10 @@
         <v>252</v>
       </c>
       <c r="D57">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57">
         <v>374</v>
@@ -3254,22 +3254,22 @@
         <v>419</v>
       </c>
       <c r="K57">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M57">
         <v>647</v>
       </c>
       <c r="N57">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O57">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P57">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3283,13 +3283,13 @@
         <v>107</v>
       </c>
       <c r="D58">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G58">
         <v>173</v>
@@ -3310,16 +3310,16 @@
         <v>313</v>
       </c>
       <c r="M58">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N58">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O58">
         <v>368</v>
       </c>
       <c r="P58">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3330,13 +3330,13 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>48</v>
@@ -3345,25 +3345,25 @@
         <v>62</v>
       </c>
       <c r="H59">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <v>120</v>
       </c>
       <c r="J59">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59">
         <v>158</v>
       </c>
       <c r="L59">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N59">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O59">
         <v>236</v>
@@ -3380,46 +3380,46 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I60">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J60">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K60">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L60">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M60">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="N60">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="O60">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="P60">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3516,13 +3516,13 @@
         <v>64</v>
       </c>
       <c r="F4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4">
         <v>310</v>
       </c>
       <c r="H4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I4">
         <v>348</v>
@@ -3534,13 +3534,13 @@
         <v>324</v>
       </c>
       <c r="L4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M4">
         <v>257</v>
       </c>
       <c r="N4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O4">
         <v>51</v>
@@ -3560,37 +3560,37 @@
         <v>94</v>
       </c>
       <c r="E5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G5">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H5">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="I5">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J5">
         <v>1109</v>
       </c>
       <c r="K5">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L5">
         <v>643</v>
       </c>
       <c r="M5">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N5">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O5">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P5">
         <v>10</v>
@@ -3607,43 +3607,43 @@
         <v>182</v>
       </c>
       <c r="D6">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E6">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F6">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G6">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="H6">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="I6">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="J6">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="K6">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="L6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M6">
         <v>1744</v>
       </c>
       <c r="N6">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="O6">
         <v>770</v>
       </c>
       <c r="P6">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3657,40 +3657,40 @@
         <v>323</v>
       </c>
       <c r="D7">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E7">
         <v>923</v>
       </c>
       <c r="F7">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="G7">
         <v>3205</v>
       </c>
       <c r="H7">
-        <v>3827</v>
+        <v>3833</v>
       </c>
       <c r="I7">
-        <v>3847</v>
+        <v>3842</v>
       </c>
       <c r="J7">
-        <v>4528</v>
+        <v>4532</v>
       </c>
       <c r="K7">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="L7">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M7">
         <v>2352</v>
       </c>
       <c r="N7">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="O7">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="P7">
         <v>31</v>
@@ -3710,34 +3710,34 @@
         <v>612</v>
       </c>
       <c r="E8">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F8">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G8">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="H8">
-        <v>3710</v>
+        <v>3707</v>
       </c>
       <c r="I8">
         <v>3757</v>
       </c>
       <c r="J8">
-        <v>4505</v>
+        <v>4510</v>
       </c>
       <c r="K8">
-        <v>3607</v>
+        <v>3603</v>
       </c>
       <c r="L8">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="M8">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="N8">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="O8">
         <v>1873</v>
@@ -3754,28 +3754,28 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>14008</v>
+        <v>14012</v>
       </c>
       <c r="D9">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E9">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F9">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="G9">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H9">
         <v>2047</v>
       </c>
       <c r="I9">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="J9">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K9">
         <v>2093</v>
@@ -3784,16 +3784,16 @@
         <v>1656</v>
       </c>
       <c r="M9">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N9">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="O9">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="P9">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3804,25 +3804,25 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>18374</v>
+        <v>18398</v>
       </c>
       <c r="D10">
-        <v>16092</v>
+        <v>16068</v>
       </c>
       <c r="E10">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="F10">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G10">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="H10">
         <v>1103</v>
       </c>
       <c r="I10">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J10">
         <v>1216</v>
@@ -3831,19 +3831,19 @@
         <v>1046</v>
       </c>
       <c r="L10">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M10">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N10">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O10">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P10">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3854,43 +3854,43 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>12288</v>
+        <v>12300</v>
       </c>
       <c r="D11">
-        <v>10418</v>
+        <v>10410</v>
       </c>
       <c r="E11">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F11">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G11">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H11">
         <v>1414</v>
       </c>
       <c r="I11">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="J11">
         <v>1454</v>
       </c>
       <c r="K11">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="L11">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M11">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N11">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O11">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="P11">
         <v>84</v>
@@ -3907,43 +3907,43 @@
         <v>4594</v>
       </c>
       <c r="D12">
-        <v>3772</v>
+        <v>3774</v>
       </c>
       <c r="E12">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="F12">
         <v>2078</v>
       </c>
       <c r="G12">
-        <v>3836</v>
+        <v>3838</v>
       </c>
       <c r="H12">
-        <v>2942</v>
+        <v>2937</v>
       </c>
       <c r="I12">
         <v>959</v>
       </c>
       <c r="J12">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K12">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L12">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M12">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N12">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O12">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3954,19 +3954,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>3866</v>
+        <v>3873</v>
       </c>
       <c r="D13">
-        <v>2995</v>
+        <v>2988</v>
       </c>
       <c r="E13">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F13">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G13">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H13">
         <v>1245</v>
@@ -3981,13 +3981,13 @@
         <v>1023</v>
       </c>
       <c r="L13">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M13">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="N13">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="O13">
         <v>594</v>
@@ -4010,31 +4010,31 @@
         <v>635</v>
       </c>
       <c r="E14">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F14">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G14">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H14">
         <v>595</v>
       </c>
       <c r="I14">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J14">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K14">
         <v>522</v>
       </c>
       <c r="L14">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M14">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N14">
         <v>239</v>
@@ -4057,22 +4057,22 @@
         <v>2602</v>
       </c>
       <c r="D15">
-        <v>4115</v>
+        <v>4126</v>
       </c>
       <c r="E15">
-        <v>11467</v>
+        <v>11458</v>
       </c>
       <c r="F15">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G15">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H15">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I15">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J15">
         <v>801</v>
@@ -4081,10 +4081,10 @@
         <v>644</v>
       </c>
       <c r="L15">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M15">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N15">
         <v>334</v>
@@ -4104,25 +4104,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>6943</v>
+        <v>6946</v>
       </c>
       <c r="D16">
-        <v>12306</v>
+        <v>12338</v>
       </c>
       <c r="E16">
-        <v>29758</v>
+        <v>29724</v>
       </c>
       <c r="F16">
         <v>2099</v>
       </c>
       <c r="G16">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H16">
         <v>1166</v>
       </c>
       <c r="I16">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J16">
         <v>928</v>
@@ -4131,10 +4131,10 @@
         <v>765</v>
       </c>
       <c r="L16">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M16">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N16">
         <v>377</v>
@@ -4154,40 +4154,40 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>14298</v>
+        <v>14316</v>
       </c>
       <c r="D17">
-        <v>18236</v>
+        <v>18254</v>
       </c>
       <c r="E17">
-        <v>23669</v>
+        <v>23639</v>
       </c>
       <c r="F17">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="G17">
-        <v>3042</v>
+        <v>3035</v>
       </c>
       <c r="H17">
         <v>2825</v>
       </c>
       <c r="I17">
-        <v>3729</v>
+        <v>3732</v>
       </c>
       <c r="J17">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="K17">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="L17">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="M17">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="N17">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="O17">
         <v>505</v>
@@ -4204,25 +4204,25 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>4486</v>
+        <v>4488</v>
       </c>
       <c r="D18">
-        <v>7347</v>
+        <v>7367</v>
       </c>
       <c r="E18">
-        <v>26029</v>
+        <v>26039</v>
       </c>
       <c r="F18">
-        <v>19708</v>
+        <v>19695</v>
       </c>
       <c r="G18">
-        <v>7958</v>
+        <v>7940</v>
       </c>
       <c r="H18">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="I18">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="J18">
         <v>2994</v>
@@ -4231,16 +4231,16 @@
         <v>2639</v>
       </c>
       <c r="L18">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="M18">
         <v>1219</v>
       </c>
       <c r="N18">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="O18">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P18">
         <v>29</v>
@@ -4254,31 +4254,31 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="D19">
-        <v>3909</v>
+        <v>3915</v>
       </c>
       <c r="E19">
-        <v>14886</v>
+        <v>14906</v>
       </c>
       <c r="F19">
-        <v>22555</v>
+        <v>22542</v>
       </c>
       <c r="G19">
-        <v>8756</v>
+        <v>8744</v>
       </c>
       <c r="H19">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="I19">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="J19">
-        <v>5072</v>
+        <v>5079</v>
       </c>
       <c r="K19">
-        <v>4856</v>
+        <v>4848</v>
       </c>
       <c r="L19">
         <v>3630</v>
@@ -4287,13 +4287,13 @@
         <v>2625</v>
       </c>
       <c r="N19">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="O19">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4304,46 +4304,46 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="D20">
         <v>2707</v>
       </c>
       <c r="E20">
-        <v>7625</v>
+        <v>7633</v>
       </c>
       <c r="F20">
-        <v>13243</v>
+        <v>13256</v>
       </c>
       <c r="G20">
-        <v>13255</v>
+        <v>13234</v>
       </c>
       <c r="H20">
-        <v>5770</v>
+        <v>5774</v>
       </c>
       <c r="I20">
-        <v>6966</v>
+        <v>6967</v>
       </c>
       <c r="J20">
-        <v>8060</v>
+        <v>8062</v>
       </c>
       <c r="K20">
-        <v>7176</v>
+        <v>7171</v>
       </c>
       <c r="L20">
-        <v>5429</v>
+        <v>5432</v>
       </c>
       <c r="M20">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="N20">
         <v>3046</v>
       </c>
       <c r="O20">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="P20">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4354,40 +4354,40 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="D21">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="E21">
-        <v>9103</v>
+        <v>9139</v>
       </c>
       <c r="F21">
         <v>28063</v>
       </c>
       <c r="G21">
-        <v>20879</v>
+        <v>20845</v>
       </c>
       <c r="H21">
         <v>3500</v>
       </c>
       <c r="I21">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="J21">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="K21">
         <v>3788</v>
       </c>
       <c r="L21">
-        <v>2766</v>
+        <v>2762</v>
       </c>
       <c r="M21">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="N21">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="O21">
         <v>976</v>
@@ -4404,40 +4404,40 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="D22">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="E22">
-        <v>9069</v>
+        <v>9093</v>
       </c>
       <c r="F22">
-        <v>32138</v>
+        <v>32140</v>
       </c>
       <c r="G22">
-        <v>21765</v>
+        <v>21738</v>
       </c>
       <c r="H22">
-        <v>5977</v>
+        <v>5973</v>
       </c>
       <c r="I22">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="J22">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="K22">
-        <v>5346</v>
+        <v>5349</v>
       </c>
       <c r="L22">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="M22">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="N22">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="O22">
         <v>1839</v>
@@ -4454,46 +4454,46 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="D23">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="E23">
-        <v>7987</v>
+        <v>8007</v>
       </c>
       <c r="F23">
-        <v>25771</v>
+        <v>25794</v>
       </c>
       <c r="G23">
-        <v>27850</v>
+        <v>27844</v>
       </c>
       <c r="H23">
-        <v>20153</v>
+        <v>20121</v>
       </c>
       <c r="I23">
-        <v>10887</v>
+        <v>10884</v>
       </c>
       <c r="J23">
-        <v>8994</v>
+        <v>9000</v>
       </c>
       <c r="K23">
-        <v>8980</v>
+        <v>8976</v>
       </c>
       <c r="L23">
-        <v>7590</v>
+        <v>7589</v>
       </c>
       <c r="M23">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="N23">
-        <v>4162</v>
+        <v>4159</v>
       </c>
       <c r="O23">
-        <v>3756</v>
+        <v>3758</v>
       </c>
       <c r="P23">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4504,46 +4504,46 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2323</v>
+        <v>2328</v>
       </c>
       <c r="D24">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="E24">
-        <v>5160</v>
+        <v>5170</v>
       </c>
       <c r="F24">
-        <v>16232</v>
+        <v>16250</v>
       </c>
       <c r="G24">
-        <v>27700</v>
+        <v>27716</v>
       </c>
       <c r="H24">
-        <v>31291</v>
+        <v>31279</v>
       </c>
       <c r="I24">
-        <v>22999</v>
+        <v>22991</v>
       </c>
       <c r="J24">
-        <v>22263</v>
+        <v>22259</v>
       </c>
       <c r="K24">
-        <v>14980</v>
+        <v>14974</v>
       </c>
       <c r="L24">
-        <v>11435</v>
+        <v>11427</v>
       </c>
       <c r="M24">
-        <v>7269</v>
+        <v>7271</v>
       </c>
       <c r="N24">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="O24">
-        <v>4266</v>
+        <v>4262</v>
       </c>
       <c r="P24">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4557,43 +4557,43 @@
         <v>2246</v>
       </c>
       <c r="D25">
-        <v>2304</v>
+        <v>2309</v>
       </c>
       <c r="E25">
         <v>4409</v>
       </c>
       <c r="F25">
-        <v>7597</v>
+        <v>7605</v>
       </c>
       <c r="G25">
-        <v>14351</v>
+        <v>14361</v>
       </c>
       <c r="H25">
-        <v>29153</v>
+        <v>29162</v>
       </c>
       <c r="I25">
-        <v>25893</v>
+        <v>25890</v>
       </c>
       <c r="J25">
         <v>21798</v>
       </c>
       <c r="K25">
-        <v>29368</v>
+        <v>29363</v>
       </c>
       <c r="L25">
-        <v>24824</v>
+        <v>24811</v>
       </c>
       <c r="M25">
-        <v>11429</v>
+        <v>11431</v>
       </c>
       <c r="N25">
-        <v>7481</v>
+        <v>7472</v>
       </c>
       <c r="O25">
-        <v>7086</v>
+        <v>7089</v>
       </c>
       <c r="P25">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4604,46 +4604,46 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D26">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E26">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="F26">
-        <v>5295</v>
+        <v>5304</v>
       </c>
       <c r="G26">
-        <v>8107</v>
+        <v>8111</v>
       </c>
       <c r="H26">
-        <v>17047</v>
+        <v>17057</v>
       </c>
       <c r="I26">
-        <v>22877</v>
+        <v>22894</v>
       </c>
       <c r="J26">
-        <v>30012</v>
+        <v>29994</v>
       </c>
       <c r="K26">
-        <v>25589</v>
+        <v>25592</v>
       </c>
       <c r="L26">
-        <v>26084</v>
+        <v>26088</v>
       </c>
       <c r="M26">
-        <v>25006</v>
+        <v>24992</v>
       </c>
       <c r="N26">
-        <v>11706</v>
+        <v>11701</v>
       </c>
       <c r="O26">
-        <v>9027</v>
+        <v>9023</v>
       </c>
       <c r="P26">
-        <v>3215</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4654,46 +4654,46 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D27">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E27">
-        <v>2754</v>
+        <v>2759</v>
       </c>
       <c r="F27">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="G27">
-        <v>6431</v>
+        <v>6443</v>
       </c>
       <c r="H27">
-        <v>11797</v>
+        <v>11793</v>
       </c>
       <c r="I27">
-        <v>14192</v>
+        <v>14198</v>
       </c>
       <c r="J27">
-        <v>20767</v>
+        <v>20766</v>
       </c>
       <c r="K27">
-        <v>17982</v>
+        <v>17979</v>
       </c>
       <c r="L27">
-        <v>17778</v>
+        <v>17787</v>
       </c>
       <c r="M27">
-        <v>18844</v>
+        <v>18841</v>
       </c>
       <c r="N27">
-        <v>15060</v>
+        <v>15052</v>
       </c>
       <c r="O27">
-        <v>11324</v>
+        <v>11317</v>
       </c>
       <c r="P27">
-        <v>3415</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4704,46 +4704,46 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D28">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E28">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="F28">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="G28">
-        <v>4309</v>
+        <v>4315</v>
       </c>
       <c r="H28">
-        <v>7011</v>
+        <v>7007</v>
       </c>
       <c r="I28">
-        <v>7808</v>
+        <v>7809</v>
       </c>
       <c r="J28">
-        <v>14475</v>
+        <v>14488</v>
       </c>
       <c r="K28">
-        <v>13356</v>
+        <v>13346</v>
       </c>
       <c r="L28">
-        <v>11140</v>
+        <v>11137</v>
       </c>
       <c r="M28">
-        <v>12016</v>
+        <v>12031</v>
       </c>
       <c r="N28">
-        <v>13894</v>
+        <v>13896</v>
       </c>
       <c r="O28">
-        <v>9663</v>
+        <v>9648</v>
       </c>
       <c r="P28">
-        <v>3810</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -4754,46 +4754,46 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D29">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E29">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F29">
-        <v>2868</v>
+        <v>2874</v>
       </c>
       <c r="G29">
-        <v>3672</v>
+        <v>3667</v>
       </c>
       <c r="H29">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="I29">
-        <v>5174</v>
+        <v>5179</v>
       </c>
       <c r="J29">
-        <v>8049</v>
+        <v>8050</v>
       </c>
       <c r="K29">
-        <v>10613</v>
+        <v>10614</v>
       </c>
       <c r="L29">
-        <v>8789</v>
+        <v>8788</v>
       </c>
       <c r="M29">
         <v>9972</v>
       </c>
       <c r="N29">
-        <v>8499</v>
+        <v>8502</v>
       </c>
       <c r="O29">
-        <v>10467</v>
+        <v>10459</v>
       </c>
       <c r="P29">
-        <v>2986</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -4807,43 +4807,43 @@
         <v>923</v>
       </c>
       <c r="D30">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E30">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F30">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G30">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="H30">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="I30">
         <v>3222</v>
       </c>
       <c r="J30">
-        <v>4769</v>
+        <v>4772</v>
       </c>
       <c r="K30">
-        <v>6609</v>
+        <v>6613</v>
       </c>
       <c r="L30">
-        <v>5487</v>
+        <v>5480</v>
       </c>
       <c r="M30">
-        <v>6390</v>
+        <v>6392</v>
       </c>
       <c r="N30">
-        <v>7010</v>
+        <v>7012</v>
       </c>
       <c r="O30">
         <v>6623</v>
       </c>
       <c r="P30">
-        <v>2670</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4857,43 +4857,43 @@
         <v>885</v>
       </c>
       <c r="D31">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E31">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="F31">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="G31">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="H31">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="I31">
-        <v>4028</v>
+        <v>4034</v>
       </c>
       <c r="J31">
-        <v>5417</v>
+        <v>5408</v>
       </c>
       <c r="K31">
-        <v>5927</v>
+        <v>5932</v>
       </c>
       <c r="L31">
-        <v>5799</v>
+        <v>5803</v>
       </c>
       <c r="M31">
-        <v>6302</v>
+        <v>6304</v>
       </c>
       <c r="N31">
-        <v>6229</v>
+        <v>6228</v>
       </c>
       <c r="O31">
-        <v>7668</v>
+        <v>7667</v>
       </c>
       <c r="P31">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4910,40 +4910,40 @@
         <v>568</v>
       </c>
       <c r="E32">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F32">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G32">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="H32">
         <v>3338</v>
       </c>
       <c r="I32">
-        <v>3762</v>
+        <v>3759</v>
       </c>
       <c r="J32">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="K32">
-        <v>5504</v>
+        <v>5508</v>
       </c>
       <c r="L32">
-        <v>5499</v>
+        <v>5495</v>
       </c>
       <c r="M32">
         <v>5572</v>
       </c>
       <c r="N32">
-        <v>5875</v>
+        <v>5882</v>
       </c>
       <c r="O32">
-        <v>7721</v>
+        <v>7715</v>
       </c>
       <c r="P32">
-        <v>3207</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4960,40 +4960,40 @@
         <v>633</v>
       </c>
       <c r="E33">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F33">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="G33">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="H33">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="I33">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="J33">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="K33">
-        <v>4677</v>
+        <v>4680</v>
       </c>
       <c r="L33">
         <v>4750</v>
       </c>
       <c r="M33">
-        <v>4774</v>
+        <v>4769</v>
       </c>
       <c r="N33">
-        <v>4741</v>
+        <v>4744</v>
       </c>
       <c r="O33">
-        <v>5852</v>
+        <v>5858</v>
       </c>
       <c r="P33">
-        <v>2354</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -5004,46 +5004,46 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D34">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E34">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F34">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="G34">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H34">
         <v>2111</v>
       </c>
       <c r="I34">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J34">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="K34">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="L34">
         <v>2964</v>
       </c>
       <c r="M34">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="N34">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="O34">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="P34">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -5057,43 +5057,43 @@
         <v>521</v>
       </c>
       <c r="D35">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E35">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F35">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="G35">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H35">
         <v>1981</v>
       </c>
       <c r="I35">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J35">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="K35">
         <v>2393</v>
       </c>
       <c r="L35">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="M35">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="N35">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="O35">
         <v>2689</v>
       </c>
       <c r="P35">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5104,46 +5104,46 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D36">
         <v>476</v>
       </c>
       <c r="E36">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F36">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="G36">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H36">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I36">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J36">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K36">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="L36">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="M36">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="N36">
         <v>1917</v>
       </c>
       <c r="O36">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="P36">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -5160,28 +5160,28 @@
         <v>484</v>
       </c>
       <c r="E37">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F37">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="G37">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H37">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I37">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="J37">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="K37">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="L37">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="M37">
         <v>2139</v>
@@ -5193,7 +5193,7 @@
         <v>2032</v>
       </c>
       <c r="P37">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5213,37 +5213,37 @@
         <v>698</v>
       </c>
       <c r="F38">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G38">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H38">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="I38">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="J38">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K38">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="L38">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="M38">
         <v>1800</v>
       </c>
       <c r="N38">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="O38">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="P38">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5263,31 +5263,31 @@
         <v>546</v>
       </c>
       <c r="F39">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G39">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H39">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="I39">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J39">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="K39">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="L39">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="M39">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="N39">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O39">
         <v>1582</v>
@@ -5304,10 +5304,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <v>352</v>
@@ -5319,31 +5319,31 @@
         <v>604</v>
       </c>
       <c r="H40">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I40">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J40">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K40">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L40">
         <v>1148</v>
       </c>
       <c r="M40">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N40">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O40">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="P40">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -5354,28 +5354,28 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D41">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E41">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F41">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G41">
         <v>564</v>
       </c>
       <c r="H41">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="I41">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J41">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K41">
         <v>975</v>
@@ -5384,16 +5384,16 @@
         <v>1035</v>
       </c>
       <c r="M41">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="N41">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O41">
         <v>1087</v>
       </c>
       <c r="P41">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -5410,40 +5410,40 @@
         <v>184</v>
       </c>
       <c r="E42">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F42">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G42">
         <v>574</v>
       </c>
       <c r="H42">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I42">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J42">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K42">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="L42">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M42">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N42">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O42">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="P42">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -5454,37 +5454,37 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D43">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E43">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F43">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G43">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H43">
         <v>841</v>
       </c>
       <c r="I43">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J43">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K43">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="L43">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="M43">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="N43">
         <v>1145</v>
@@ -5493,7 +5493,7 @@
         <v>1220</v>
       </c>
       <c r="P43">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -5504,28 +5504,28 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D44">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E44">
         <v>413</v>
       </c>
       <c r="F44">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G44">
         <v>635</v>
       </c>
       <c r="H44">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I44">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J44">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K44">
         <v>1044</v>
@@ -5534,16 +5534,16 @@
         <v>1026</v>
       </c>
       <c r="M44">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N44">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O44">
         <v>1035</v>
       </c>
       <c r="P44">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5554,46 +5554,46 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D45">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45">
         <v>340</v>
       </c>
       <c r="F45">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G45">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H45">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I45">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J45">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K45">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L45">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M45">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N45">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O45">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P45">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -5616,34 +5616,34 @@
         <v>420</v>
       </c>
       <c r="G46">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H46">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I46">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J46">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="K46">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L46">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M46">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="N46">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O46">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P46">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5660,7 +5660,7 @@
         <v>181</v>
       </c>
       <c r="E47">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F47">
         <v>379</v>
@@ -5669,16 +5669,16 @@
         <v>466</v>
       </c>
       <c r="H47">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I47">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J47">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K47">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L47">
         <v>914</v>
@@ -5687,13 +5687,13 @@
         <v>879</v>
       </c>
       <c r="N47">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O47">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P47">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5707,31 +5707,31 @@
         <v>222</v>
       </c>
       <c r="D48">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E48">
         <v>289</v>
       </c>
       <c r="F48">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G48">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H48">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I48">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J48">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K48">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L48">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M48">
         <v>976</v>
@@ -5740,10 +5740,10 @@
         <v>937</v>
       </c>
       <c r="O48">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P48">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5763,7 +5763,7 @@
         <v>316</v>
       </c>
       <c r="F49">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G49">
         <v>487</v>
@@ -5775,10 +5775,10 @@
         <v>691</v>
       </c>
       <c r="J49">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K49">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L49">
         <v>993</v>
@@ -5793,7 +5793,7 @@
         <v>714</v>
       </c>
       <c r="P49">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -5807,43 +5807,43 @@
         <v>396</v>
       </c>
       <c r="D50">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E50">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F50">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G50">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H50">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="I50">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J50">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K50">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="L50">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="M50">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="N50">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O50">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P50">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -5860,40 +5860,40 @@
         <v>493</v>
       </c>
       <c r="E51">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F51">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G51">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="H51">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="I51">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="J51">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="K51">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="L51">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="M51">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="N51">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="O51">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="P51">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5910,7 +5910,7 @@
         <v>411</v>
       </c>
       <c r="E52">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F52">
         <v>982</v>
@@ -5919,31 +5919,31 @@
         <v>1277</v>
       </c>
       <c r="H52">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I52">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="J52">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K52">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="L52">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="M52">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="N52">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="O52">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="P52">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -5960,40 +5960,40 @@
         <v>507</v>
       </c>
       <c r="E53">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F53">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G53">
         <v>1366</v>
       </c>
       <c r="H53">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="I53">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J53">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="K53">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="L53">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="M53">
         <v>1902</v>
       </c>
       <c r="N53">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="O53">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="P53">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6007,43 +6007,43 @@
         <v>882</v>
       </c>
       <c r="D54">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E54">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F54">
         <v>1710</v>
       </c>
       <c r="G54">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="H54">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I54">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="J54">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="K54">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="L54">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M54">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N54">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="O54">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="P54">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6054,46 +6054,46 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D55">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E55">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F55">
-        <v>2438</v>
+        <v>2443</v>
       </c>
       <c r="G55">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="H55">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="I55">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="J55">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="K55">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L55">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="M55">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="N55">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="O55">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="P55">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6104,19 +6104,19 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D56">
         <v>539</v>
       </c>
       <c r="E56">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="F56">
         <v>1312</v>
       </c>
       <c r="G56">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="H56">
         <v>637</v>
@@ -6128,10 +6128,10 @@
         <v>719</v>
       </c>
       <c r="K56">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L56">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M56">
         <v>916</v>
@@ -6143,7 +6143,7 @@
         <v>660</v>
       </c>
       <c r="P56">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6157,13 +6157,13 @@
         <v>606</v>
       </c>
       <c r="D57">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E57">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F57">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G57">
         <v>1162</v>
@@ -6175,25 +6175,25 @@
         <v>535</v>
       </c>
       <c r="J57">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K57">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L57">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M57">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N57">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O57">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P57">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6207,19 +6207,19 @@
         <v>453</v>
       </c>
       <c r="D58">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E58">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F58">
         <v>746</v>
       </c>
       <c r="G58">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H58">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I58">
         <v>462</v>
@@ -6231,7 +6231,7 @@
         <v>565</v>
       </c>
       <c r="L58">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M58">
         <v>781</v>
@@ -6243,7 +6243,7 @@
         <v>673</v>
       </c>
       <c r="P58">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6254,46 +6254,46 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D59">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E59">
         <v>350</v>
       </c>
       <c r="F59">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G59">
         <v>468</v>
       </c>
       <c r="H59">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I59">
         <v>357</v>
       </c>
       <c r="J59">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K59">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L59">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M59">
         <v>661</v>
       </c>
       <c r="N59">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O59">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P59">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6304,46 +6304,46 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="D60">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="E60">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="F60">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="G60">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="H60">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="I60">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="J60">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="K60">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="L60">
-        <v>263</v>
+        <v>372</v>
       </c>
       <c r="M60">
-        <v>288</v>
+        <v>449</v>
       </c>
       <c r="N60">
-        <v>285</v>
+        <v>418</v>
       </c>
       <c r="O60">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="P60">
-        <v>158</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6579,10 +6579,10 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>52</v>
@@ -6620,40 +6620,40 @@
         <v>42</v>
       </c>
       <c r="C10">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D10">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E10">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="F10">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="G10">
         <v>2121</v>
       </c>
       <c r="H10">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="I10">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="J10">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="K10">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L10">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M10">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N10">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O10">
         <v>233</v>
@@ -6670,43 +6670,43 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <v>6480</v>
+        <v>6487</v>
       </c>
       <c r="D11">
-        <v>6017</v>
+        <v>6014</v>
       </c>
       <c r="E11">
-        <v>6637</v>
+        <v>6638</v>
       </c>
       <c r="F11">
-        <v>4576</v>
+        <v>4580</v>
       </c>
       <c r="G11">
-        <v>3501</v>
+        <v>3497</v>
       </c>
       <c r="H11">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="I11">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="J11">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="K11">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="L11">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="M11">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N11">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="O11">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P11">
         <v>23</v>
@@ -6720,43 +6720,43 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>13022</v>
+        <v>13037</v>
       </c>
       <c r="D12">
-        <v>14550</v>
+        <v>14556</v>
       </c>
       <c r="E12">
-        <v>17886</v>
+        <v>17876</v>
       </c>
       <c r="F12">
-        <v>7773</v>
+        <v>7771</v>
       </c>
       <c r="G12">
-        <v>5074</v>
+        <v>5066</v>
       </c>
       <c r="H12">
         <v>3604</v>
       </c>
       <c r="I12">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J12">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="K12">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L12">
         <v>1240</v>
       </c>
       <c r="M12">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N12">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O12">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P12">
         <v>35</v>
@@ -6770,43 +6770,43 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>14577</v>
+        <v>14594</v>
       </c>
       <c r="D13">
-        <v>16209</v>
+        <v>16219</v>
       </c>
       <c r="E13">
-        <v>23056</v>
+        <v>23049</v>
       </c>
       <c r="F13">
-        <v>13394</v>
+        <v>13384</v>
       </c>
       <c r="G13">
-        <v>6683</v>
+        <v>6678</v>
       </c>
       <c r="H13">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="I13">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="J13">
-        <v>3739</v>
+        <v>3741</v>
       </c>
       <c r="K13">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="L13">
         <v>2119</v>
       </c>
       <c r="M13">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="N13">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="O13">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="P13">
         <v>58</v>
@@ -6820,43 +6820,43 @@
         <v>46</v>
       </c>
       <c r="C14">
-        <v>9940</v>
+        <v>9948</v>
       </c>
       <c r="D14">
-        <v>10601</v>
+        <v>10611</v>
       </c>
       <c r="E14">
-        <v>16880</v>
+        <v>16872</v>
       </c>
       <c r="F14">
-        <v>12437</v>
+        <v>12442</v>
       </c>
       <c r="G14">
-        <v>8738</v>
+        <v>8729</v>
       </c>
       <c r="H14">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="I14">
-        <v>5283</v>
+        <v>5279</v>
       </c>
       <c r="J14">
-        <v>5898</v>
+        <v>5900</v>
       </c>
       <c r="K14">
-        <v>4825</v>
+        <v>4823</v>
       </c>
       <c r="L14">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="M14">
         <v>2504</v>
       </c>
       <c r="N14">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="O14">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="P14">
         <v>87</v>
@@ -6870,46 +6870,46 @@
         <v>47</v>
       </c>
       <c r="C15">
-        <v>9351</v>
+        <v>9362</v>
       </c>
       <c r="D15">
-        <v>9332</v>
+        <v>9339</v>
       </c>
       <c r="E15">
-        <v>17705</v>
+        <v>17723</v>
       </c>
       <c r="F15">
-        <v>21118</v>
+        <v>21106</v>
       </c>
       <c r="G15">
-        <v>14232</v>
+        <v>14221</v>
       </c>
       <c r="H15">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="I15">
         <v>6210</v>
       </c>
       <c r="J15">
-        <v>6664</v>
+        <v>6667</v>
       </c>
       <c r="K15">
-        <v>5736</v>
+        <v>5727</v>
       </c>
       <c r="L15">
         <v>4375</v>
       </c>
       <c r="M15">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="N15">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="O15">
         <v>1533</v>
       </c>
       <c r="P15">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6920,46 +6920,46 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <v>7711</v>
+        <v>7717</v>
       </c>
       <c r="D16">
-        <v>7876</v>
+        <v>7879</v>
       </c>
       <c r="E16">
-        <v>15675</v>
+        <v>15698</v>
       </c>
       <c r="F16">
-        <v>26681</v>
+        <v>26675</v>
       </c>
       <c r="G16">
-        <v>18921</v>
+        <v>18904</v>
       </c>
       <c r="H16">
-        <v>7276</v>
+        <v>7272</v>
       </c>
       <c r="I16">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="J16">
-        <v>6255</v>
+        <v>6256</v>
       </c>
       <c r="K16">
-        <v>5955</v>
+        <v>5959</v>
       </c>
       <c r="L16">
-        <v>4548</v>
+        <v>4542</v>
       </c>
       <c r="M16">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="N16">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="O16">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="P16">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6970,46 +6970,46 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>8066</v>
+        <v>8076</v>
       </c>
       <c r="D17">
         <v>8340</v>
       </c>
       <c r="E17">
-        <v>16902</v>
+        <v>16923</v>
       </c>
       <c r="F17">
-        <v>33535</v>
+        <v>33552</v>
       </c>
       <c r="G17">
-        <v>29858</v>
+        <v>29829</v>
       </c>
       <c r="H17">
-        <v>12299</v>
+        <v>12292</v>
       </c>
       <c r="I17">
-        <v>7600</v>
+        <v>7594</v>
       </c>
       <c r="J17">
-        <v>7217</v>
+        <v>7221</v>
       </c>
       <c r="K17">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="L17">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="M17">
         <v>3821</v>
       </c>
       <c r="N17">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="O17">
         <v>1605</v>
       </c>
       <c r="P17">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -7020,46 +7020,46 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <v>8445</v>
+        <v>8447</v>
       </c>
       <c r="D18">
-        <v>8947</v>
+        <v>8964</v>
       </c>
       <c r="E18">
-        <v>17504</v>
+        <v>17523</v>
       </c>
       <c r="F18">
-        <v>29952</v>
+        <v>29968</v>
       </c>
       <c r="G18">
-        <v>31884</v>
+        <v>31863</v>
       </c>
       <c r="H18">
-        <v>18317</v>
+        <v>18305</v>
       </c>
       <c r="I18">
-        <v>14297</v>
+        <v>14298</v>
       </c>
       <c r="J18">
-        <v>14752</v>
+        <v>14748</v>
       </c>
       <c r="K18">
-        <v>13992</v>
+        <v>13990</v>
       </c>
       <c r="L18">
-        <v>11472</v>
+        <v>11476</v>
       </c>
       <c r="M18">
-        <v>8690</v>
+        <v>8681</v>
       </c>
       <c r="N18">
-        <v>5563</v>
+        <v>5566</v>
       </c>
       <c r="O18">
-        <v>4067</v>
+        <v>4062</v>
       </c>
       <c r="P18">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7070,46 +7070,46 @@
         <v>51</v>
       </c>
       <c r="C19">
-        <v>3520</v>
+        <v>3525</v>
       </c>
       <c r="D19">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="E19">
-        <v>6584</v>
+        <v>6587</v>
       </c>
       <c r="F19">
-        <v>10309</v>
+        <v>10319</v>
       </c>
       <c r="G19">
-        <v>13645</v>
+        <v>13644</v>
       </c>
       <c r="H19">
-        <v>10653</v>
+        <v>10644</v>
       </c>
       <c r="I19">
-        <v>9486</v>
+        <v>9487</v>
       </c>
       <c r="J19">
-        <v>10274</v>
+        <v>10273</v>
       </c>
       <c r="K19">
         <v>9840</v>
       </c>
       <c r="L19">
-        <v>8275</v>
+        <v>8274</v>
       </c>
       <c r="M19">
         <v>7036</v>
       </c>
       <c r="N19">
-        <v>5175</v>
+        <v>5174</v>
       </c>
       <c r="O19">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="P19">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7120,46 +7120,46 @@
         <v>52</v>
       </c>
       <c r="C20">
-        <v>3995</v>
+        <v>4001</v>
       </c>
       <c r="D20">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="E20">
-        <v>5835</v>
+        <v>5841</v>
       </c>
       <c r="F20">
-        <v>9787</v>
+        <v>9792</v>
       </c>
       <c r="G20">
-        <v>13200</v>
+        <v>13197</v>
       </c>
       <c r="H20">
-        <v>12546</v>
+        <v>12544</v>
       </c>
       <c r="I20">
-        <v>11921</v>
+        <v>11924</v>
       </c>
       <c r="J20">
-        <v>13395</v>
+        <v>13403</v>
       </c>
       <c r="K20">
-        <v>11971</v>
+        <v>11962</v>
       </c>
       <c r="L20">
-        <v>10090</v>
+        <v>10087</v>
       </c>
       <c r="M20">
-        <v>8383</v>
+        <v>8389</v>
       </c>
       <c r="N20">
-        <v>6199</v>
+        <v>6192</v>
       </c>
       <c r="O20">
-        <v>6757</v>
+        <v>6755</v>
       </c>
       <c r="P20">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7170,46 +7170,46 @@
         <v>53</v>
       </c>
       <c r="C21">
-        <v>4640</v>
+        <v>4649</v>
       </c>
       <c r="D21">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="E21">
-        <v>9532</v>
+        <v>9542</v>
       </c>
       <c r="F21">
-        <v>13471</v>
+        <v>13474</v>
       </c>
       <c r="G21">
-        <v>16175</v>
+        <v>16174</v>
       </c>
       <c r="H21">
-        <v>15782</v>
+        <v>15780</v>
       </c>
       <c r="I21">
-        <v>14977</v>
+        <v>14985</v>
       </c>
       <c r="J21">
-        <v>16225</v>
+        <v>16226</v>
       </c>
       <c r="K21">
-        <v>14730</v>
+        <v>14720</v>
       </c>
       <c r="L21">
-        <v>11802</v>
+        <v>11797</v>
       </c>
       <c r="M21">
-        <v>9512</v>
+        <v>9520</v>
       </c>
       <c r="N21">
-        <v>6937</v>
+        <v>6932</v>
       </c>
       <c r="O21">
-        <v>5890</v>
+        <v>5885</v>
       </c>
       <c r="P21">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7220,46 +7220,46 @@
         <v>54</v>
       </c>
       <c r="C22">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="D22">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E22">
-        <v>4607</v>
+        <v>4611</v>
       </c>
       <c r="F22">
-        <v>8066</v>
+        <v>8076</v>
       </c>
       <c r="G22">
-        <v>11401</v>
+        <v>11400</v>
       </c>
       <c r="H22">
-        <v>15095</v>
+        <v>15094</v>
       </c>
       <c r="I22">
-        <v>13786</v>
+        <v>13782</v>
       </c>
       <c r="J22">
-        <v>14775</v>
+        <v>14783</v>
       </c>
       <c r="K22">
-        <v>14371</v>
+        <v>14366</v>
       </c>
       <c r="L22">
-        <v>13573</v>
+        <v>13577</v>
       </c>
       <c r="M22">
-        <v>13148</v>
+        <v>13144</v>
       </c>
       <c r="N22">
-        <v>9261</v>
+        <v>9265</v>
       </c>
       <c r="O22">
-        <v>7671</v>
+        <v>7663</v>
       </c>
       <c r="P22">
-        <v>2721</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -7273,43 +7273,43 @@
         <v>1664</v>
       </c>
       <c r="D23">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="E23">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="F23">
         <v>4046</v>
       </c>
       <c r="G23">
-        <v>5839</v>
+        <v>5844</v>
       </c>
       <c r="H23">
-        <v>10050</v>
+        <v>10056</v>
       </c>
       <c r="I23">
-        <v>10383</v>
+        <v>10377</v>
       </c>
       <c r="J23">
-        <v>14387</v>
+        <v>14392</v>
       </c>
       <c r="K23">
-        <v>12207</v>
+        <v>12205</v>
       </c>
       <c r="L23">
-        <v>11232</v>
+        <v>11233</v>
       </c>
       <c r="M23">
-        <v>10256</v>
+        <v>10254</v>
       </c>
       <c r="N23">
-        <v>9135</v>
+        <v>9137</v>
       </c>
       <c r="O23">
-        <v>8299</v>
+        <v>8295</v>
       </c>
       <c r="P23">
-        <v>2919</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -7320,46 +7320,46 @@
         <v>56</v>
       </c>
       <c r="C24">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D24">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E24">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="F24">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="G24">
-        <v>4785</v>
+        <v>4789</v>
       </c>
       <c r="H24">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="I24">
-        <v>6257</v>
+        <v>6259</v>
       </c>
       <c r="J24">
-        <v>7547</v>
+        <v>7545</v>
       </c>
       <c r="K24">
-        <v>9320</v>
+        <v>9323</v>
       </c>
       <c r="L24">
-        <v>8095</v>
+        <v>8094</v>
       </c>
       <c r="M24">
-        <v>7332</v>
+        <v>7335</v>
       </c>
       <c r="N24">
-        <v>6446</v>
+        <v>6440</v>
       </c>
       <c r="O24">
-        <v>5875</v>
+        <v>5880</v>
       </c>
       <c r="P24">
-        <v>1860</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -7379,37 +7379,37 @@
         <v>720</v>
       </c>
       <c r="F25">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G25">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="H25">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="I25">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="J25">
-        <v>3489</v>
+        <v>3495</v>
       </c>
       <c r="K25">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="L25">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="M25">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="N25">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="O25">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="P25">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -7426,40 +7426,40 @@
         <v>198</v>
       </c>
       <c r="E26">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F26">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G26">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H26">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="I26">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="J26">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="K26">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="L26">
         <v>2016</v>
       </c>
       <c r="M26">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N26">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="O26">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="P26">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -7470,46 +7470,46 @@
         <v>59</v>
       </c>
       <c r="C27">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="F27">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="G27">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="H27">
-        <v>569</v>
+        <v>855</v>
       </c>
       <c r="I27">
-        <v>572</v>
+        <v>891</v>
       </c>
       <c r="J27">
-        <v>680</v>
+        <v>1050</v>
       </c>
       <c r="K27">
-        <v>706</v>
+        <v>1062</v>
       </c>
       <c r="L27">
-        <v>676</v>
+        <v>1019</v>
       </c>
       <c r="M27">
-        <v>691</v>
+        <v>1030</v>
       </c>
       <c r="N27">
-        <v>620</v>
+        <v>946</v>
       </c>
       <c r="O27">
-        <v>617</v>
+        <v>949</v>
       </c>
       <c r="P27">
-        <v>227</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
